--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/AVGScripts/____表演编辑说明.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/AVGScripts/____表演编辑说明.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17265" windowHeight="8745"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="AVG指令文档" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AVG指令文档!$A$1:$E$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AVG指令文档!$A$1:$E$94</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -1475,6 +1475,15 @@
   <si>
     <t>子任务完成</t>
   </si>
+  <si>
+    <t>打开小剧场插画</t>
+  </si>
+  <si>
+    <t>图片名</t>
+  </si>
+  <si>
+    <t>关闭小剧场插画</t>
+  </si>
 </sst>
 </file>
 
@@ -1486,7 +1495,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +1692,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1697,18 +1713,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1735,7 +1751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399609363078707"/>
+        <fgColor theme="3" tint="0.399578844569231"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,37 +1763,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799676503799554"/>
+        <fgColor theme="6" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799676503799554"/>
+        <fgColor theme="4" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799676503799554"/>
+        <fgColor theme="5" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799676503799554"/>
+        <fgColor theme="8" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799676503799554"/>
+        <fgColor theme="9" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399700918607135"/>
+        <fgColor theme="6" tint="0.399670400097659"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,7 +1817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
+        <fgColor theme="5" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,7 +1967,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2301,35 +2329,35 @@
     <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2648,7 +2676,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3094,12 +3121,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3300,7 +3327,7 @@
     </row>
     <row r="9" ht="49.5" spans="1:10">
       <c r="A9" s="15">
-        <f t="shared" ref="A9:A18" si="0">ROW()-3</f>
+        <f t="shared" ref="A9:A17" si="0">ROW()-3</f>
         <v>6</v>
       </c>
       <c r="C9" s="22"/>
@@ -4834,58 +4861,94 @@
       <c r="H88" s="99"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="C89" s="99"/>
+      <c r="D89" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="100" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="99"/>
+    </row>
+    <row r="90" ht="33" spans="1:8">
       <c r="A90" s="1">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="C90" s="99"/>
+      <c r="D90" s="99" t="s">
         <v>265</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="100" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="91" ht="33" spans="1:7">
+      <c r="F90" s="99"/>
+      <c r="G90" s="99"/>
+      <c r="H90" s="99"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="D91" s="106" t="s">
+      <c r="C91" s="99"/>
+      <c r="D91" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="E91" s="106"/>
-      <c r="F91" s="106" t="s">
+      <c r="E91" s="99"/>
+      <c r="F91" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="99" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="92" ht="33" spans="1:5">
+      <c r="H91" s="99"/>
+    </row>
+    <row r="92" ht="33" spans="1:8">
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="C92" s="99"/>
+      <c r="D92" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E92" s="100" t="s">
         <v>211</v>
       </c>
+      <c r="F92" s="99"/>
+      <c r="G92" s="99"/>
+      <c r="H92" s="99"/>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="C93" s="99"/>
+      <c r="D93" s="99" t="s">
+        <v>271</v>
+      </c>
+      <c r="E93" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="99"/>
+    </row>
+    <row r="94" spans="3:8">
+      <c r="C94" s="99"/>
+      <c r="D94" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
+      <c r="H94" s="99"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E92">
+  <autoFilter ref="A1:E94">
     <extLst/>
   </autoFilter>
   <mergeCells count="10">
